--- a/Project Planning/Skills Audit/Individual Skill Audit/Dipesh B.C..xlsx
+++ b/Project Planning/Skills Audit/Individual Skill Audit/Dipesh B.C..xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Individual Skill Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Individual Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A91A1C-54A5-4CD9-8C55-AA113BC67DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C18866-855B-407D-9C90-37317B694597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>To become better manage communication, events and in tracking progress.</t>
   </si>
   <si>
-    <t>To become better at tools provided by GitHub for version control of our website.</t>
-  </si>
-  <si>
     <t>To develop prototype for user experience.</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>To make professional presentation for our website.</t>
+  </si>
+  <si>
+    <t>To become better at tools provided by GitHub for version control and documentation of our website.</t>
   </si>
 </sst>
 </file>
@@ -426,6 +426,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,18 +465,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1123,66 +1123,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>28</v>
@@ -1250,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
@@ -1351,14 +1351,14 @@
       <c r="A12" s="4">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
@@ -1385,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>32</v>
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>34</v>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>35</v>
@@ -1466,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>36</v>
@@ -1493,7 +1493,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>40</v>
@@ -1519,10 +1519,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="12">
         <v>10</v>
@@ -1545,10 +1545,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="12">
         <v>3</v>
@@ -1571,10 +1571,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="12">
         <v>3</v>
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>41</v>
@@ -1623,10 +1623,10 @@
         <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F22" s="12">
         <v>3</v>
@@ -1649,10 +1649,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="12">
         <v>10</v>
@@ -1665,25 +1665,25 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
+      <c r="A24" s="16">
         <v>18</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="16">
+        <v>4</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="26">
-        <v>4</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="26">
-        <v>3</v>
-      </c>
-      <c r="G24" s="28">
+      <c r="F24" s="16">
+        <v>3</v>
+      </c>
+      <c r="G24" s="18">
         <v>43891</v>
       </c>
       <c r="H24" s="15" t="s">

--- a/Project Planning/Skills Audit/Individual Skill Audit/Dipesh B.C..xlsx
+++ b/Project Planning/Skills Audit/Individual Skill Audit/Dipesh B.C..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L5\Semester-2\MANA541 - Project Management - 14805 - WIN - 201910\The-Clehuderfax-e-chain\Project Planning\Skills Audit\Individual Skill Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C18866-855B-407D-9C90-37317B694597}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58DD4A5-5C80-4003-A596-C2E9F4AD9F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>Follow youtube tutorials and Bootstrap official documentation.</t>
   </si>
   <si>
-    <t>Follow w3school link and HTML/CSS Tutorial.</t>
-  </si>
-  <si>
     <t>Follow  youtube tutorials.</t>
   </si>
   <si>
@@ -206,13 +203,16 @@
     <t>To implement payment gateway.</t>
   </si>
   <si>
-    <t>Microsoft Powerpoint</t>
-  </si>
-  <si>
-    <t>To make professional presentation for our website.</t>
-  </si>
-  <si>
     <t>To become better at tools provided by GitHub for version control and documentation of our website.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>To make professional documentation for our website.</t>
+  </si>
+  <si>
+    <t>Follow w3school link and HTML/CSS Tutorial on MDN web docs.</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="9">
         <v>43891</v>
@@ -1256,7 +1256,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="9">
         <v>43891</v>
@@ -1277,13 +1277,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="9">
         <v>43891</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="9">
         <v>43891</v>
@@ -1331,13 +1331,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9">
         <v>43891</v>
@@ -1358,13 +1358,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9">
         <v>43898</v>
@@ -1385,13 +1385,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G13" s="9">
         <v>43898</v>
@@ -1412,13 +1412,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="9">
         <v>43891</v>
@@ -1445,7 +1445,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G15" s="9">
         <v>43898</v>
@@ -1472,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="F16" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="9">
         <v>43891</v>
@@ -1498,8 +1498,8 @@
       <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="12">
-        <v>10</v>
+      <c r="F17" s="6">
+        <v>2</v>
       </c>
       <c r="G17" s="9">
         <v>43898</v>
@@ -1522,10 +1522,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="12">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
       </c>
       <c r="G18" s="9">
         <v>43898</v>
@@ -1548,10 +1548,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="12">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
       </c>
       <c r="G19" s="9">
         <v>43891</v>
@@ -1571,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="12">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
       </c>
       <c r="G20" s="9">
         <v>43891</v>
@@ -1597,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="9">
         <v>43891</v>
@@ -1623,13 +1623,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="9">
         <v>43891</v>
@@ -1649,13 +1649,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="F23" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G23" s="14">
         <v>43898</v>
@@ -1675,13 +1675,13 @@
         <v>4</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="18">
         <v>43891</v>
